--- a/files/input1.xlsx
+++ b/files/input1.xlsx
@@ -403,10 +403,10 @@
   <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
   </cols>
@@ -429,624 +429,446 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="D3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="D4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="D5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="D6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="D7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="D8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="D9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="D10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="D11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="D12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="D13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="D14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="D15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="D16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="D17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="D18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="D19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="D20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="D21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="D22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="D23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="D24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="D25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="D26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="D27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="D28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="D29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="D30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="D31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="D32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="D33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="D34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="D35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="D36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="D37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="D38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="D39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="D40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="D41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="D42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="D43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="1"/>
-      <c r="D44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="D45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="1"/>
-      <c r="D46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="1"/>
-      <c r="D47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="D48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="1"/>
-      <c r="D49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="1"/>
-      <c r="D50" s="1"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="1"/>
-      <c r="D51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="1"/>
-      <c r="D52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="1"/>
-      <c r="D53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="1"/>
-      <c r="D54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="D55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="1"/>
-      <c r="D56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="1"/>
-      <c r="D57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="1"/>
-      <c r="D58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="1"/>
-      <c r="D59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="1"/>
-      <c r="D60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="1"/>
-      <c r="D61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="1"/>
-      <c r="D62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="1"/>
-      <c r="D63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="1"/>
-      <c r="D64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="1"/>
-      <c r="D65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="1"/>
-      <c r="D66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="1"/>
-      <c r="D67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="1"/>
-      <c r="D68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="1"/>
-      <c r="D69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="1"/>
-      <c r="D70" s="1"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="1"/>
-      <c r="D71" s="1"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="1"/>
-      <c r="D72" s="1"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="1"/>
-      <c r="D73" s="1"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="1"/>
-      <c r="D74" s="1"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="1"/>
-      <c r="D75" s="1"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="1"/>
-      <c r="D76" s="1"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="1"/>
-      <c r="D77" s="1"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="1"/>
-      <c r="D78" s="1"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="1"/>
-      <c r="D79" s="1"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="1"/>
-      <c r="D80" s="1"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="1"/>
-      <c r="D81" s="1"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="1"/>
-      <c r="D82" s="1"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="1"/>
-      <c r="D83" s="1"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="1"/>
-      <c r="D84" s="1"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="1"/>
-      <c r="D85" s="1"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="1"/>
-      <c r="D86" s="1"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="1"/>
-      <c r="D87" s="1"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="1"/>
-      <c r="D88" s="1"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="1"/>
-      <c r="D89" s="1"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="1"/>
-      <c r="D90" s="1"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="1"/>
-      <c r="D91" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
